--- a/data/trans_camb/P32B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P32B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,85</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 3,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,37; 4,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,97; 6,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 2,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 3,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 5,33</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,42%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>236,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>121,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>279,77%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-40,23; 586,91</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-36,21; 713,22</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>25,44; 1423,24</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,32; 501,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,5; 584,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,29; 911,9</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,36; 3,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 2,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 1,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,68; 0,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,76; 0,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 1,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 2,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 1,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,39; 1,32</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>335,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>178,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>158,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,95%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,36%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>101,15; 830,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,0; 538,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,5; 476,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,52; 147,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,29; 121,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,0; 289,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,13; 383,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,37; 228,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,5; 207,51</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,57; 5,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 3,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,02; 3,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,57; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 1,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 2,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 2,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 2,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 2,28</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>546,14%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>397,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>350,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>148,08%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>152,67%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>164,6%</t>
         </is>
       </c>
     </row>
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,48; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,35; 1377,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,72; 1043,63</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,83; 1101,46</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,22; 3,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 2,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 1,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 0,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 0,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 1,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 1,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 1,4</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,26; 1,63</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>251,72%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>159,79%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>131,66%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,13%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,37%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,79%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>139,32%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,3%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>92,88; 617,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,81; 418,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,78; 392,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,42; 105,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,17; 158,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,65; 301,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,16; 287,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,67; 219,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,3; 245,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>3,13</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 6,58</t>
+          <t>1,11; 7,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,29</t>
+          <t>0,0; 4,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,33</t>
+          <t>1,05; 6,05</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236,3%</t>
+          <t>257,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>279,77%</t>
+          <t>306,82%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>25,44; 1423,24</t>
+          <t>33,1; 1773,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,29; 911,9</t>
+          <t>32,4; 975,47</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,37</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 1,54</t>
+          <t>-0,24; 1,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 1,92</t>
+          <t>-1,72; 1,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 1,32</t>
+          <t>-0,46; 1,28</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>71,39%</t>
+          <t>85,74%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>-5,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>45,36%</t>
+          <t>40,67%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,5; 476,83</t>
+          <t>-43,39; 534,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-65,0; 289,81</t>
+          <t>-76,41; 208,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-37,5; 207,51</t>
+          <t>-38,62; 206,76</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,06</t>
+          <t>1,0</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 3,16</t>
+          <t>-0,11; 2,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 2,06</t>
+          <t>-1,86; 1,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 2,28</t>
+          <t>-0,17; 2,2</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>350,63%</t>
+          <t>330,55%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>34,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>164,6%</t>
+          <t>154,31%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-92,48; —</t>
+          <t>-91,24; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,83; 1101,46</t>
+          <t>-29,18; 1054,83</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,83</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,98</t>
+          <t>0,32; 2,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 1,68</t>
+          <t>-0,75; 1,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,63</t>
+          <t>0,22; 1,64</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>131,66%</t>
+          <t>141,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>44,79%</t>
+          <t>26,97%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>92,88%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>24,78; 392,42</t>
+          <t>27,62; 414,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-38,65; 301,78</t>
+          <t>-48,3; 238,32</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,3; 245,61</t>
+          <t>14,26; 245,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32B-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32B-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,48</t>
+          <t>-0,67; 3,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 4,11</t>
+          <t>-0,66; 3,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 7,56</t>
+          <t>1,05; 7,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,46</t>
+          <t>0,0; 2,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,63</t>
+          <t>0,0; 4,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,47</t>
+          <t>0,0; 3,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,54</t>
+          <t>-0,61; 2,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 3,04</t>
+          <t>-0,28; 3,03</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 6,05</t>
+          <t>1,09; 6,08</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,23; 586,91</t>
+          <t>-43,85; 563,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-36,21; 713,22</t>
+          <t>-49,23; 635,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,1; 1773,48</t>
+          <t>22,75; 1118,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-44,32; 501,81</t>
+          <t>-50,6; 485,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,5; 584,67</t>
+          <t>-38,44; 565,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32,4; 975,47</t>
+          <t>40,48; 1110,66</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,58</t>
+          <t>1,32; 3,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,25</t>
+          <t>0,36; 2,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 1,79</t>
+          <t>-0,24; 1,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 0,89</t>
+          <t>-1,74; 0,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 0,8</t>
+          <t>-1,61; 0,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 1,47</t>
+          <t>-1,55; 1,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,3</t>
+          <t>0,65; 2,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 1,47</t>
+          <t>-0,06; 1,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,28</t>
+          <t>-0,4; 1,32</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>101,15; 830,48</t>
+          <t>101,54; 1008,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,0; 538,21</t>
+          <t>24,46; 569,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,39; 534,82</t>
+          <t>-38,96; 463,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-81,52; 147,39</t>
+          <t>-79,41; 138,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-78,29; 121,99</t>
+          <t>-76,22; 150,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-76,41; 208,27</t>
+          <t>-75,49; 205,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,13; 383,67</t>
+          <t>42,84; 404,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 228,89</t>
+          <t>-7,02; 252,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-38,62; 206,76</t>
+          <t>-36,41; 223,06</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,18</t>
+          <t>0,42; 5,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,99</t>
+          <t>0,1; 3,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,95</t>
+          <t>-0,16; 3,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 0,0</t>
+          <t>-3,7; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,55</t>
+          <t>-2,55; 1,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,94</t>
+          <t>-1,97; 1,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 2,71</t>
+          <t>-0,29; 2,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,38</t>
+          <t>-0,23; 2,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 2,2</t>
+          <t>-0,17; 2,19</t>
         </is>
       </c>
     </row>
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-91,24; —</t>
+          <t>-84,21; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-67,35; 1377,61</t>
+          <t>-63,19; 1203,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,72; 1043,63</t>
+          <t>-38,71; 1097,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-29,18; 1054,83</t>
+          <t>-28,09; 1493,03</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,1</t>
+          <t>1,25; 2,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,16</t>
+          <t>0,59; 2,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,14</t>
+          <t>0,31; 2,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 0,43</t>
+          <t>-1,34; 0,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,9</t>
+          <t>-1,02; 0,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 1,42</t>
+          <t>-0,92; 1,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,95</t>
+          <t>0,61; 1,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,4</t>
+          <t>0,28; 1,47</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,64</t>
+          <t>0,14; 1,54</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>92,88; 617,14</t>
+          <t>97,1; 543,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>43,81; 418,43</t>
+          <t>47,49; 403,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>27,62; 414,45</t>
+          <t>20,04; 369,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-79,42; 105,04</t>
+          <t>-81,27; 79,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-62,17; 158,79</t>
+          <t>-63,54; 153,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,3; 238,32</t>
+          <t>-56,0; 181,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>43,16; 287,74</t>
+          <t>47,67; 288,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>20,67; 219,8</t>
+          <t>20,65; 233,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,26; 245,17</t>
+          <t>7,75; 222,8</t>
         </is>
       </c>
     </row>
